--- a/dealer list.xlsx
+++ b/dealer list.xlsx
@@ -1725,7 +1725,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H1:H20"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/dealer list.xlsx
+++ b/dealer list.xlsx
@@ -1725,7 +1725,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
